--- a/data/benjamin_2_csv/durée_segments.xlsx
+++ b/data/benjamin_2_csv/durée_segments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abarb\Documents\travail\stage et4\travail\codePlateau\data\benjamin_2_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F7A4C7B-917F-44C8-88C6-DE800BC92350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1AF857B-8763-40F4-A486-2DB70B2A3FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>Segment 1</t>
   </si>
@@ -261,6 +261,18 @@
   </si>
   <si>
     <t>14_05_Benjamin</t>
+  </si>
+  <si>
+    <t>Segment 74</t>
+  </si>
+  <si>
+    <t>Segment 75</t>
+  </si>
+  <si>
+    <t>Segment 76</t>
+  </si>
+  <si>
+    <t>Segment 77</t>
   </si>
 </sst>
 </file>
@@ -669,15 +681,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:BV3"/>
+  <dimension ref="A1:BZ3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:74" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>69</v>
       </c>
@@ -900,8 +912,20 @@
       <c r="BV1" t="s">
         <v>73</v>
       </c>
+      <c r="BW1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>77</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>78</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>79</v>
+      </c>
     </row>
-    <row r="2" spans="1:74" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>74</v>
       </c>
@@ -1119,227 +1143,251 @@
         <v>3.4</v>
       </c>
       <c r="BU2" s="2">
-        <v>11.5</v>
-      </c>
-      <c r="BV2" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="BV2" s="3">
+        <v>0.8</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="BX2" s="3">
         <v>0.4</v>
       </c>
     </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:78" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="1">
-        <v>2.8</v>
+      <c r="B3" s="3">
+        <v>1</v>
       </c>
       <c r="C3" s="2">
-        <v>10.5</v>
+        <v>7.7</v>
       </c>
       <c r="D3" s="1">
         <v>2.8</v>
       </c>
       <c r="E3" s="2">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="G3" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.8</v>
+      </c>
+      <c r="I3" s="2">
         <v>8.1</v>
       </c>
-      <c r="F3" s="1">
+      <c r="J3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="K3" s="2">
         <v>1.4</v>
       </c>
-      <c r="H3" s="3">
+      <c r="L3" s="3">
         <v>1.8</v>
       </c>
-      <c r="I3" s="2">
+      <c r="M3" s="2">
         <v>7.9</v>
       </c>
-      <c r="J3" s="1">
+      <c r="N3" s="1">
         <v>3.8</v>
       </c>
-      <c r="K3" s="2">
+      <c r="O3" s="2">
         <v>10.5</v>
       </c>
-      <c r="L3" s="1">
+      <c r="P3" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="M3" s="2">
+      <c r="Q3" s="2">
         <v>15.1</v>
       </c>
-      <c r="N3" s="1">
+      <c r="R3" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="O3" s="2">
+      <c r="S3" s="2">
         <v>11.7</v>
       </c>
-      <c r="P3" s="1">
+      <c r="T3" s="1">
         <v>0.8</v>
       </c>
-      <c r="Q3" s="2">
+      <c r="U3" s="2">
         <v>1</v>
       </c>
-      <c r="R3" s="3">
+      <c r="V3" s="3">
         <v>3.6</v>
-      </c>
-      <c r="S3" s="2">
-        <v>9.1</v>
-      </c>
-      <c r="T3" s="1">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="U3" s="2">
-        <v>16.2</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1.4</v>
       </c>
       <c r="W3" s="2">
         <v>9.1</v>
       </c>
       <c r="X3" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>16.2</v>
+      </c>
+      <c r="Z3" s="1">
         <v>1.4</v>
       </c>
-      <c r="Y3" s="2">
+      <c r="AA3" s="2">
+        <v>9.1</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="AC3" s="2">
         <v>12.1</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AD3" s="1">
         <v>2.6</v>
       </c>
-      <c r="AA3" s="2">
+      <c r="AE3" s="2">
         <v>5.2</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AF3" s="1">
         <v>6.7</v>
       </c>
-      <c r="AC3" s="2">
+      <c r="AG3" s="2">
         <v>3.2</v>
       </c>
-      <c r="AD3" s="1">
+      <c r="AH3" s="1">
         <v>5</v>
       </c>
-      <c r="AE3" s="2">
+      <c r="AI3" s="2">
         <v>12.3</v>
       </c>
-      <c r="AF3" s="1">
+      <c r="AJ3" s="1">
         <v>4.8</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AK3" s="2">
         <v>7.7</v>
       </c>
-      <c r="AH3" s="1">
+      <c r="AL3" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="AI3" s="2">
+      <c r="AM3" s="2">
         <v>9.5</v>
       </c>
-      <c r="AJ3" s="1">
+      <c r="AN3" s="1">
         <v>3.2</v>
       </c>
-      <c r="AK3" s="2">
+      <c r="AO3" s="2">
         <v>1.8</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AP3" s="3">
         <v>0.2</v>
       </c>
-      <c r="AM3" s="2">
+      <c r="AQ3" s="2">
         <v>2.4</v>
       </c>
-      <c r="AN3" s="1">
+      <c r="AR3" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="AO3" s="2">
+      <c r="AS3" s="2">
         <v>13.1</v>
       </c>
-      <c r="AP3" s="1">
+      <c r="AT3" s="1">
         <v>3</v>
       </c>
-      <c r="AQ3" s="2">
+      <c r="AU3" s="2">
         <v>11.1</v>
       </c>
-      <c r="AR3" s="1">
+      <c r="AV3" s="1">
         <v>4</v>
       </c>
-      <c r="AS3" s="2">
+      <c r="AW3" s="2">
         <v>18.600000000000001</v>
-      </c>
-      <c r="AT3" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="AU3" s="2">
-        <v>14.7</v>
-      </c>
-      <c r="AV3" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>8.9</v>
       </c>
       <c r="AX3" s="1">
         <v>3.4</v>
       </c>
       <c r="AY3" s="2">
+        <v>14.7</v>
+      </c>
+      <c r="AZ3" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>8.9</v>
+      </c>
+      <c r="BB3" s="1">
+        <v>3.4</v>
+      </c>
+      <c r="BC3" s="2">
         <v>5.5</v>
       </c>
-      <c r="AZ3" s="1">
+      <c r="BD3" s="1">
         <v>4.8</v>
       </c>
-      <c r="BA3" s="2">
+      <c r="BE3" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="BB3" s="1">
+      <c r="BF3" s="1">
         <v>2</v>
       </c>
-      <c r="BC3" s="2">
+      <c r="BG3" s="2">
         <v>10.1</v>
       </c>
-      <c r="BD3" s="1">
+      <c r="BH3" s="1">
         <v>3.4</v>
       </c>
-      <c r="BE3" s="2">
+      <c r="BI3" s="2">
         <v>3.6</v>
       </c>
-      <c r="BF3" s="1">
+      <c r="BJ3" s="1">
         <v>7.5</v>
       </c>
-      <c r="BG3" s="2">
+      <c r="BK3" s="2">
         <v>6.3</v>
       </c>
-      <c r="BH3" s="1">
+      <c r="BL3" s="1">
         <v>8.1</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BM3" s="2">
         <v>15.3</v>
       </c>
-      <c r="BJ3" s="3">
+      <c r="BN3" s="3">
         <v>3.8</v>
       </c>
-      <c r="BK3" s="2">
+      <c r="BO3" s="2">
         <v>3.4</v>
       </c>
-      <c r="BL3" s="1">
+      <c r="BP3" s="1">
         <v>5.7</v>
       </c>
-      <c r="BM3" s="2">
+      <c r="BQ3" s="2">
         <v>2.6</v>
       </c>
-      <c r="BN3" s="1">
+      <c r="BR3" s="1">
         <v>11.9</v>
       </c>
-      <c r="BO3" s="2">
+      <c r="BS3" s="2">
         <v>1.8</v>
       </c>
-      <c r="BP3" s="1">
+      <c r="BT3" s="1">
         <v>6.7</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="BU3" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="BR3" s="3">
+      <c r="BV3" s="3">
         <v>3.4</v>
       </c>
-      <c r="BS3" s="2">
+      <c r="BW3" s="2">
         <v>3</v>
       </c>
-      <c r="BT3" s="3">
+      <c r="BX3" s="3">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="BY3" s="2">
+        <v>3.1</v>
+      </c>
+      <c r="BZ3" s="3">
         <v>4.5999999999999996</v>
       </c>
     </row>
